--- a/config/excel/Monster.xlsx
+++ b/config/excel/Monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D16722C-6312-4D8A-94ED-DBCC4DB7D586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8DAF6-5CAD-456A-9667-BE9A98ACFC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -112,14 +112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0-无种族
-1-自然
-2-文明
-3-韵律
-4-破灭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>race</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,6 +282,14 @@
   </si>
   <si>
     <t>职业</t>
+  </si>
+  <si>
+    <t>0-无种族
+1-自然
+2-文明
+3-破灭
+4-韵律</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,46 +1320,46 @@
         <v>24</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1411,49 +1411,49 @@
         <v>6</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1473,49 +1473,49 @@
         <v>8</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>11</v>
@@ -1577,31 +1577,31 @@
         <v>11</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
